--- a/results/FEDXD_CHOICE_RESULTS_OVERALL.xlsx
+++ b/results/FEDXD_CHOICE_RESULTS_OVERALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hta031\Github\FEDPROFERENCE\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3367226F-F450-4E77-B1EC-C83E03A4FEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309BE822-B0AD-4438-8AE5-DD1717A9B6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FED_METAFILE" sheetId="2" r:id="rId1"/>
@@ -13835,7 +13835,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20810,7 +20810,7 @@
         <v>1.3843197645292091E-4</v>
       </c>
       <c r="Q3" s="28">
-        <f t="shared" ref="Q3:Q66" si="1">_xlfn.T.TEST(C4:L4,V4:AE4,2,2)</f>
+        <f t="shared" ref="Q3:Q63" si="1">_xlfn.T.TEST(C4:L4,V4:AE4,2,2)</f>
         <v>0.45810845337701722</v>
       </c>
       <c r="R3" s="28">
@@ -41295,7 +41295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53616316-6837-4774-A702-06954408A159}">
   <dimension ref="A1:AG124"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="S64" workbookViewId="0">
       <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
@@ -41410,7 +41410,7 @@
         <v>0.29114689177208336</v>
       </c>
       <c r="R2" s="28">
-        <f>_xlfn.T.TEST(V3:AE3,V35:AE35,2,2)</f>
+        <f t="shared" ref="R2:R29" si="0">_xlfn.T.TEST(V3:AE3,V35:AE35,2,2)</f>
         <v>1.7358294848411252E-8</v>
       </c>
       <c r="S2" s="28"/>
@@ -41498,15 +41498,15 @@
       </c>
       <c r="O3" s="28"/>
       <c r="P3" s="28">
-        <f t="shared" ref="P3:P29" si="0">_xlfn.T.TEST(C4:L4,C36:L36,2,2)</f>
+        <f t="shared" ref="P3:P29" si="1">_xlfn.T.TEST(C4:L4,C36:L36,2,2)</f>
         <v>2.3538345304967522E-11</v>
       </c>
       <c r="Q3" s="28">
-        <f t="shared" ref="Q3:Q66" si="1">_xlfn.T.TEST(C4:L4,V4:AE4,2,2)</f>
+        <f t="shared" ref="Q3:Q65" si="2">_xlfn.T.TEST(C4:L4,V4:AE4,2,2)</f>
         <v>0.12399948061042973</v>
       </c>
       <c r="R3" s="28">
-        <f>_xlfn.T.TEST(V4:AE4,V36:AE36,2,2)</f>
+        <f t="shared" si="0"/>
         <v>1.8112555284798518E-8</v>
       </c>
       <c r="S3" s="28"/>
@@ -41594,15 +41594,15 @@
       </c>
       <c r="O4" s="28"/>
       <c r="P4" s="28">
+        <f t="shared" si="1"/>
+        <v>1.9849482558508792E-10</v>
+      </c>
+      <c r="Q4" s="28">
+        <f t="shared" si="2"/>
+        <v>0.9735825716247859</v>
+      </c>
+      <c r="R4" s="28">
         <f t="shared" si="0"/>
-        <v>1.9849482558508792E-10</v>
-      </c>
-      <c r="Q4" s="28">
-        <f t="shared" si="1"/>
-        <v>0.9735825716247859</v>
-      </c>
-      <c r="R4" s="28">
-        <f>_xlfn.T.TEST(V5:AE5,V37:AE37,2,2)</f>
         <v>1.5223747159760114E-6</v>
       </c>
       <c r="S4" s="28"/>
@@ -41690,15 +41690,15 @@
       </c>
       <c r="O5" s="28"/>
       <c r="P5" s="28">
+        <f t="shared" si="1"/>
+        <v>2.2966220915180984E-12</v>
+      </c>
+      <c r="Q5" s="28">
+        <f t="shared" si="2"/>
+        <v>0.24436176661247969</v>
+      </c>
+      <c r="R5" s="28">
         <f t="shared" si="0"/>
-        <v>2.2966220915180984E-12</v>
-      </c>
-      <c r="Q5" s="28">
-        <f t="shared" si="1"/>
-        <v>0.24436176661247969</v>
-      </c>
-      <c r="R5" s="28">
-        <f>_xlfn.T.TEST(V6:AE6,V38:AE38,2,2)</f>
         <v>1.9851775651387685E-8</v>
       </c>
       <c r="S5" s="28"/>
@@ -41786,15 +41786,15 @@
       </c>
       <c r="O6" s="28"/>
       <c r="P6" s="28">
+        <f t="shared" si="1"/>
+        <v>5.0035648656874055E-11</v>
+      </c>
+      <c r="Q6" s="28">
+        <f t="shared" si="2"/>
+        <v>0.16280120886873103</v>
+      </c>
+      <c r="R6" s="28">
         <f t="shared" si="0"/>
-        <v>5.0035648656874055E-11</v>
-      </c>
-      <c r="Q6" s="28">
-        <f t="shared" si="1"/>
-        <v>0.16280120886873103</v>
-      </c>
-      <c r="R6" s="28">
-        <f>_xlfn.T.TEST(V7:AE7,V39:AE39,2,2)</f>
         <v>3.6796469302973893E-8</v>
       </c>
       <c r="S6" s="28"/>
@@ -41882,15 +41882,15 @@
       </c>
       <c r="O7" s="28"/>
       <c r="P7" s="28">
+        <f t="shared" si="1"/>
+        <v>9.4605349494875617E-10</v>
+      </c>
+      <c r="Q7" s="28">
+        <f t="shared" si="2"/>
+        <v>0.79027311735507644</v>
+      </c>
+      <c r="R7" s="28">
         <f t="shared" si="0"/>
-        <v>9.4605349494875617E-10</v>
-      </c>
-      <c r="Q7" s="28">
-        <f t="shared" si="1"/>
-        <v>0.79027311735507644</v>
-      </c>
-      <c r="R7" s="28">
-        <f>_xlfn.T.TEST(V8:AE8,V40:AE40,2,2)</f>
         <v>8.2028551587121942E-7</v>
       </c>
       <c r="S7" s="28"/>
@@ -41978,15 +41978,15 @@
       </c>
       <c r="O8" s="28"/>
       <c r="P8" s="28">
+        <f t="shared" si="1"/>
+        <v>1.5552781748273188E-10</v>
+      </c>
+      <c r="Q8" s="28">
+        <f t="shared" si="2"/>
+        <v>0.27636146614775886</v>
+      </c>
+      <c r="R8" s="28">
         <f t="shared" si="0"/>
-        <v>1.5552781748273188E-10</v>
-      </c>
-      <c r="Q8" s="28">
-        <f t="shared" si="1"/>
-        <v>0.27636146614775886</v>
-      </c>
-      <c r="R8" s="28">
-        <f>_xlfn.T.TEST(V9:AE9,V41:AE41,2,2)</f>
         <v>1.1263137021496162E-6</v>
       </c>
       <c r="S8" s="28"/>
@@ -42074,15 +42074,15 @@
       </c>
       <c r="O9" s="28"/>
       <c r="P9" s="28">
+        <f t="shared" si="1"/>
+        <v>1.3334410888240748E-8</v>
+      </c>
+      <c r="Q9" s="28">
+        <f t="shared" si="2"/>
+        <v>0.11978030970953971</v>
+      </c>
+      <c r="R9" s="28">
         <f t="shared" si="0"/>
-        <v>1.3334410888240748E-8</v>
-      </c>
-      <c r="Q9" s="28">
-        <f t="shared" si="1"/>
-        <v>0.11978030970953971</v>
-      </c>
-      <c r="R9" s="28">
-        <f>_xlfn.T.TEST(V10:AE10,V42:AE42,2,2)</f>
         <v>7.8500085073261215E-7</v>
       </c>
       <c r="S9" s="28"/>
@@ -42170,15 +42170,15 @@
       </c>
       <c r="O10" s="28"/>
       <c r="P10" s="28">
+        <f t="shared" si="1"/>
+        <v>4.9639869339284612E-10</v>
+      </c>
+      <c r="Q10" s="28">
+        <f t="shared" si="2"/>
+        <v>0.84375014289438766</v>
+      </c>
+      <c r="R10" s="28">
         <f t="shared" si="0"/>
-        <v>4.9639869339284612E-10</v>
-      </c>
-      <c r="Q10" s="28">
-        <f t="shared" si="1"/>
-        <v>0.84375014289438766</v>
-      </c>
-      <c r="R10" s="28">
-        <f>_xlfn.T.TEST(V11:AE11,V43:AE43,2,2)</f>
         <v>3.0338914399087386E-5</v>
       </c>
       <c r="S10" s="28"/>
@@ -42266,15 +42266,15 @@
       </c>
       <c r="O11" s="28"/>
       <c r="P11" s="28">
+        <f t="shared" si="1"/>
+        <v>2.7700054559073169E-6</v>
+      </c>
+      <c r="Q11" s="28">
+        <f t="shared" si="2"/>
+        <v>0.81906945844392687</v>
+      </c>
+      <c r="R11" s="28">
         <f t="shared" si="0"/>
-        <v>2.7700054559073169E-6</v>
-      </c>
-      <c r="Q11" s="28">
-        <f t="shared" si="1"/>
-        <v>0.81906945844392687</v>
-      </c>
-      <c r="R11" s="28">
-        <f>_xlfn.T.TEST(V12:AE12,V44:AE44,2,2)</f>
         <v>2.8410387336096008E-5</v>
       </c>
       <c r="S11" s="28"/>
@@ -42362,15 +42362,15 @@
       </c>
       <c r="O12" s="28"/>
       <c r="P12" s="28">
+        <f t="shared" si="1"/>
+        <v>1.2249460081361666E-6</v>
+      </c>
+      <c r="Q12" s="28">
+        <f t="shared" si="2"/>
+        <v>0.72867304019417989</v>
+      </c>
+      <c r="R12" s="28">
         <f t="shared" si="0"/>
-        <v>1.2249460081361666E-6</v>
-      </c>
-      <c r="Q12" s="28">
-        <f t="shared" si="1"/>
-        <v>0.72867304019417989</v>
-      </c>
-      <c r="R12" s="28">
-        <f>_xlfn.T.TEST(V13:AE13,V45:AE45,2,2)</f>
         <v>7.6664295114562016E-5</v>
       </c>
       <c r="S12" s="28"/>
@@ -42458,15 +42458,15 @@
       </c>
       <c r="O13" s="28"/>
       <c r="P13" s="28">
+        <f t="shared" si="1"/>
+        <v>1.1304588476663357E-4</v>
+      </c>
+      <c r="Q13" s="28">
+        <f t="shared" si="2"/>
+        <v>0.94509869987122985</v>
+      </c>
+      <c r="R13" s="28">
         <f t="shared" si="0"/>
-        <v>1.1304588476663357E-4</v>
-      </c>
-      <c r="Q13" s="28">
-        <f t="shared" si="1"/>
-        <v>0.94509869987122985</v>
-      </c>
-      <c r="R13" s="28">
-        <f>_xlfn.T.TEST(V14:AE14,V46:AE46,2,2)</f>
         <v>7.4405292641309355E-5</v>
       </c>
       <c r="S13" s="28"/>
@@ -42554,15 +42554,15 @@
       </c>
       <c r="O14" s="28"/>
       <c r="P14" s="28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q14" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q14" s="28" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R14" s="28" t="e">
-        <f>_xlfn.T.TEST(V15:AE15,V47:AE47,2,2)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S14" s="28"/>
@@ -42650,15 +42650,15 @@
       </c>
       <c r="O15" s="28"/>
       <c r="P15" s="28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q15" s="28" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R15" s="28" t="e">
-        <f>_xlfn.T.TEST(V16:AE16,V48:AE48,2,2)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S15" s="28"/>
@@ -42746,15 +42746,15 @@
       </c>
       <c r="O16" s="28"/>
       <c r="P16" s="28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q16" s="28" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R16" s="28" t="e">
-        <f>_xlfn.T.TEST(V17:AE17,V49:AE49,2,2)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S16" s="28"/>
@@ -42842,15 +42842,15 @@
       </c>
       <c r="O17" s="28"/>
       <c r="P17" s="28">
+        <f t="shared" si="1"/>
+        <v>3.7715675970219624E-4</v>
+      </c>
+      <c r="Q17" s="28">
+        <f t="shared" si="2"/>
+        <v>0.50615786046054212</v>
+      </c>
+      <c r="R17" s="28">
         <f t="shared" si="0"/>
-        <v>3.7715675970219624E-4</v>
-      </c>
-      <c r="Q17" s="28">
-        <f t="shared" si="1"/>
-        <v>0.50615786046054212</v>
-      </c>
-      <c r="R17" s="28">
-        <f>_xlfn.T.TEST(V18:AE18,V50:AE50,2,2)</f>
         <v>1.3896790414921133E-6</v>
       </c>
       <c r="S17" s="28"/>
@@ -42938,15 +42938,15 @@
       </c>
       <c r="O18" s="28"/>
       <c r="P18" s="28">
+        <f t="shared" si="1"/>
+        <v>6.6707092406823374E-5</v>
+      </c>
+      <c r="Q18" s="28">
+        <f t="shared" si="2"/>
+        <v>7.8858047132847858E-2</v>
+      </c>
+      <c r="R18" s="28">
         <f t="shared" si="0"/>
-        <v>6.6707092406823374E-5</v>
-      </c>
-      <c r="Q18" s="28">
-        <f t="shared" si="1"/>
-        <v>7.8858047132847858E-2</v>
-      </c>
-      <c r="R18" s="28">
-        <f>_xlfn.T.TEST(V19:AE19,V51:AE51,2,2)</f>
         <v>1.2592359029409847E-6</v>
       </c>
       <c r="S18" s="28"/>
@@ -43034,15 +43034,15 @@
       </c>
       <c r="O19" s="28"/>
       <c r="P19" s="28">
+        <f t="shared" si="1"/>
+        <v>2.8363076459985721E-2</v>
+      </c>
+      <c r="Q19" s="28">
+        <f t="shared" si="2"/>
+        <v>0.80819878160038583</v>
+      </c>
+      <c r="R19" s="28">
         <f t="shared" si="0"/>
-        <v>2.8363076459985721E-2</v>
-      </c>
-      <c r="Q19" s="28">
-        <f t="shared" si="1"/>
-        <v>0.80819878160038583</v>
-      </c>
-      <c r="R19" s="28">
-        <f>_xlfn.T.TEST(V20:AE20,V52:AE52,2,2)</f>
         <v>2.0905409334639071E-5</v>
       </c>
       <c r="S19" s="28"/>
@@ -43130,15 +43130,15 @@
       </c>
       <c r="O20" s="28"/>
       <c r="P20" s="28">
+        <f t="shared" si="1"/>
+        <v>1.4128823117516459E-4</v>
+      </c>
+      <c r="Q20" s="28">
+        <f t="shared" si="2"/>
+        <v>0.6035483279221503</v>
+      </c>
+      <c r="R20" s="28">
         <f t="shared" si="0"/>
-        <v>1.4128823117516459E-4</v>
-      </c>
-      <c r="Q20" s="28">
-        <f t="shared" si="1"/>
-        <v>0.6035483279221503</v>
-      </c>
-      <c r="R20" s="28">
-        <f>_xlfn.T.TEST(V21:AE21,V53:AE53,2,2)</f>
         <v>1.0262706392308803E-4</v>
       </c>
       <c r="S20" s="28"/>
@@ -43226,15 +43226,15 @@
       </c>
       <c r="O21" s="28"/>
       <c r="P21" s="28">
+        <f t="shared" si="1"/>
+        <v>7.672317892660116E-5</v>
+      </c>
+      <c r="Q21" s="28">
+        <f t="shared" si="2"/>
+        <v>0.45210576230603672</v>
+      </c>
+      <c r="R21" s="28">
         <f t="shared" si="0"/>
-        <v>7.672317892660116E-5</v>
-      </c>
-      <c r="Q21" s="28">
-        <f t="shared" si="1"/>
-        <v>0.45210576230603672</v>
-      </c>
-      <c r="R21" s="28">
-        <f>_xlfn.T.TEST(V22:AE22,V54:AE54,2,2)</f>
         <v>1.4666711892573829E-3</v>
       </c>
       <c r="S21" s="28"/>
@@ -43322,15 +43322,15 @@
       </c>
       <c r="O22" s="28"/>
       <c r="P22" s="28">
+        <f t="shared" si="1"/>
+        <v>6.0163891429907794E-3</v>
+      </c>
+      <c r="Q22" s="28">
+        <f t="shared" si="2"/>
+        <v>0.3107427668656052</v>
+      </c>
+      <c r="R22" s="28">
         <f t="shared" si="0"/>
-        <v>6.0163891429907794E-3</v>
-      </c>
-      <c r="Q22" s="28">
-        <f t="shared" si="1"/>
-        <v>0.3107427668656052</v>
-      </c>
-      <c r="R22" s="28">
-        <f>_xlfn.T.TEST(V23:AE23,V55:AE55,2,2)</f>
         <v>1.6685086223630199E-4</v>
       </c>
       <c r="S22" s="28"/>
@@ -43418,15 +43418,15 @@
       </c>
       <c r="O23" s="28"/>
       <c r="P23" s="28">
+        <f t="shared" si="1"/>
+        <v>0.23541732970210139</v>
+      </c>
+      <c r="Q23" s="28">
+        <f t="shared" si="2"/>
+        <v>0.39537137584023641</v>
+      </c>
+      <c r="R23" s="28">
         <f t="shared" si="0"/>
-        <v>0.23541732970210139</v>
-      </c>
-      <c r="Q23" s="28">
-        <f t="shared" si="1"/>
-        <v>0.39537137584023641</v>
-      </c>
-      <c r="R23" s="28">
-        <f>_xlfn.T.TEST(V24:AE24,V56:AE56,2,2)</f>
         <v>0.59472411570250727</v>
       </c>
       <c r="S23" s="28"/>
@@ -43514,15 +43514,15 @@
       </c>
       <c r="O24" s="28"/>
       <c r="P24" s="28">
+        <f t="shared" si="1"/>
+        <v>1.7295281988461848E-4</v>
+      </c>
+      <c r="Q24" s="28">
+        <f t="shared" si="2"/>
+        <v>8.9738025760913859E-3</v>
+      </c>
+      <c r="R24" s="28">
         <f t="shared" si="0"/>
-        <v>1.7295281988461848E-4</v>
-      </c>
-      <c r="Q24" s="28">
-        <f t="shared" si="1"/>
-        <v>8.9738025760913859E-3</v>
-      </c>
-      <c r="R24" s="28">
-        <f>_xlfn.T.TEST(V25:AE25,V57:AE57,2,2)</f>
         <v>0.14512928949520329</v>
       </c>
       <c r="S24" s="28"/>
@@ -43610,15 +43610,15 @@
       </c>
       <c r="O25" s="28"/>
       <c r="P25" s="28">
+        <f t="shared" si="1"/>
+        <v>3.0098279591165872E-4</v>
+      </c>
+      <c r="Q25" s="28">
+        <f t="shared" si="2"/>
+        <v>1.2488100090122202E-2</v>
+      </c>
+      <c r="R25" s="28">
         <f t="shared" si="0"/>
-        <v>3.0098279591165872E-4</v>
-      </c>
-      <c r="Q25" s="28">
-        <f t="shared" si="1"/>
-        <v>1.2488100090122202E-2</v>
-      </c>
-      <c r="R25" s="28">
-        <f>_xlfn.T.TEST(V26:AE26,V58:AE58,2,2)</f>
         <v>0.15573155472410832</v>
       </c>
       <c r="S25" s="28"/>
@@ -43706,15 +43706,15 @@
       </c>
       <c r="O26" s="28"/>
       <c r="P26" s="28">
+        <f t="shared" si="1"/>
+        <v>0.11567917016931206</v>
+      </c>
+      <c r="Q26" s="28">
+        <f t="shared" si="2"/>
+        <v>5.1512619255818189E-2</v>
+      </c>
+      <c r="R26" s="28">
         <f t="shared" si="0"/>
-        <v>0.11567917016931206</v>
-      </c>
-      <c r="Q26" s="28">
-        <f t="shared" si="1"/>
-        <v>5.1512619255818189E-2</v>
-      </c>
-      <c r="R26" s="28">
-        <f>_xlfn.T.TEST(V27:AE27,V59:AE59,2,2)</f>
         <v>0.16080268751644405</v>
       </c>
       <c r="S26" s="28"/>
@@ -43802,15 +43802,15 @@
       </c>
       <c r="O27" s="28"/>
       <c r="P27" s="28">
+        <f t="shared" si="1"/>
+        <v>0.62783650317020545</v>
+      </c>
+      <c r="Q27" s="28">
+        <f t="shared" si="2"/>
+        <v>2.3938919824614963E-2</v>
+      </c>
+      <c r="R27" s="28">
         <f t="shared" si="0"/>
-        <v>0.62783650317020545</v>
-      </c>
-      <c r="Q27" s="28">
-        <f t="shared" si="1"/>
-        <v>2.3938919824614963E-2</v>
-      </c>
-      <c r="R27" s="28">
-        <f>_xlfn.T.TEST(V28:AE28,V60:AE60,2,2)</f>
         <v>2.3938919824614963E-2</v>
       </c>
       <c r="S27" s="28"/>
@@ -43898,15 +43898,15 @@
       </c>
       <c r="O28" s="28"/>
       <c r="P28" s="28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q28" s="28" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R28" s="28" t="e">
-        <f>_xlfn.T.TEST(V29:AE29,V61:AE61,2,2)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="28"/>
@@ -43994,15 +43994,15 @@
       </c>
       <c r="O29" s="28"/>
       <c r="P29" s="28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q29" s="28" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R29" s="28" t="e">
-        <f>_xlfn.T.TEST(V30:AE30,V62:AE62,2,2)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="28"/>
@@ -44065,7 +44065,7 @@
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
       <c r="Q30" s="28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="28"/>
@@ -44103,7 +44103,7 @@
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
       <c r="Q31" s="28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="28"/>
@@ -44141,7 +44141,7 @@
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
       <c r="Q32" s="28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="28"/>
@@ -44181,7 +44181,7 @@
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
       <c r="Q33" s="28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" s="28"/>
@@ -44247,7 +44247,7 @@
       <c r="O34" s="28"/>
       <c r="P34" s="28"/>
       <c r="Q34" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82300437250020386</v>
       </c>
       <c r="R34" s="28"/>
@@ -44337,7 +44337,7 @@
       <c r="O35" s="28"/>
       <c r="P35" s="28"/>
       <c r="Q35" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74242335301371687</v>
       </c>
       <c r="R35" s="28"/>
@@ -44427,7 +44427,7 @@
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
       <c r="Q36" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87976895547019562</v>
       </c>
       <c r="R36" s="28"/>
@@ -44517,7 +44517,7 @@
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
       <c r="Q37" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82557263634549671</v>
       </c>
       <c r="R37" s="28"/>
@@ -44607,7 +44607,7 @@
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
       <c r="Q38" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79732042134267544</v>
       </c>
       <c r="R38" s="28"/>
@@ -44697,7 +44697,7 @@
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
       <c r="Q39" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96521193085441181</v>
       </c>
       <c r="R39" s="28"/>
@@ -44787,7 +44787,7 @@
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
       <c r="Q40" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97004299571340735</v>
       </c>
       <c r="R40" s="28"/>
@@ -44877,7 +44877,7 @@
       <c r="O41" s="28"/>
       <c r="P41" s="28"/>
       <c r="Q41" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78505607448567249</v>
       </c>
       <c r="R41" s="28"/>
@@ -44967,7 +44967,7 @@
       <c r="O42" s="28"/>
       <c r="P42" s="28"/>
       <c r="Q42" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.71398879938133852</v>
       </c>
       <c r="R42" s="28"/>
@@ -45057,7 +45057,7 @@
       <c r="O43" s="28"/>
       <c r="P43" s="28"/>
       <c r="Q43" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32994254229182485</v>
       </c>
       <c r="R43" s="28"/>
@@ -45147,7 +45147,7 @@
       <c r="O44" s="28"/>
       <c r="P44" s="28"/>
       <c r="Q44" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28084969082249961</v>
       </c>
       <c r="R44" s="28"/>
@@ -45237,7 +45237,7 @@
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
       <c r="Q45" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69459526755130896</v>
       </c>
       <c r="R45" s="28"/>
@@ -45327,7 +45327,7 @@
       <c r="O46" s="28"/>
       <c r="P46" s="28"/>
       <c r="Q46" s="28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R46" s="28"/>
@@ -45417,7 +45417,7 @@
       <c r="O47" s="28"/>
       <c r="P47" s="28"/>
       <c r="Q47" s="28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R47" s="28"/>
@@ -45507,7 +45507,7 @@
       <c r="O48" s="28"/>
       <c r="P48" s="28"/>
       <c r="Q48" s="28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R48" s="28"/>
@@ -45597,7 +45597,7 @@
       <c r="O49" s="28"/>
       <c r="P49" s="28"/>
       <c r="Q49" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52482262968483095</v>
       </c>
       <c r="R49" s="28"/>
@@ -45687,7 +45687,7 @@
       <c r="O50" s="28"/>
       <c r="P50" s="28"/>
       <c r="Q50" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85655734257859228</v>
       </c>
       <c r="R50" s="28"/>
@@ -45777,7 +45777,7 @@
       <c r="O51" s="28"/>
       <c r="P51" s="28"/>
       <c r="Q51" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33856992411909326</v>
       </c>
       <c r="R51" s="28"/>
@@ -45867,7 +45867,7 @@
       <c r="O52" s="28"/>
       <c r="P52" s="28"/>
       <c r="Q52" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.71023169470444503</v>
       </c>
       <c r="R52" s="28"/>
@@ -45957,7 +45957,7 @@
       <c r="O53" s="28"/>
       <c r="P53" s="28"/>
       <c r="Q53" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78002605233548739</v>
       </c>
       <c r="R53" s="28"/>
@@ -46047,7 +46047,7 @@
       <c r="O54" s="28"/>
       <c r="P54" s="28"/>
       <c r="Q54" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70415102948710762</v>
       </c>
       <c r="R54" s="28"/>
@@ -46137,7 +46137,7 @@
       <c r="O55" s="28"/>
       <c r="P55" s="28"/>
       <c r="Q55" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87156607071116454</v>
       </c>
       <c r="R55" s="28"/>
@@ -46227,7 +46227,7 @@
       <c r="O56" s="28"/>
       <c r="P56" s="28"/>
       <c r="Q56" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26425974615131009</v>
       </c>
       <c r="R56" s="28"/>
@@ -46317,7 +46317,7 @@
       <c r="O57" s="28"/>
       <c r="P57" s="28"/>
       <c r="Q57" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25299590659860072</v>
       </c>
       <c r="R57" s="28"/>
@@ -46407,7 +46407,7 @@
       <c r="O58" s="28"/>
       <c r="P58" s="28"/>
       <c r="Q58" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1642736435878221E-2</v>
       </c>
       <c r="R58" s="28"/>
@@ -46497,7 +46497,7 @@
       <c r="O59" s="28"/>
       <c r="P59" s="28"/>
       <c r="Q59" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62783650317020545</v>
       </c>
       <c r="R59" s="28"/>
@@ -46587,7 +46587,7 @@
       <c r="O60" s="28"/>
       <c r="P60" s="28"/>
       <c r="Q60" s="28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R60" s="28"/>
@@ -46677,7 +46677,7 @@
       <c r="O61" s="28"/>
       <c r="P61" s="28"/>
       <c r="Q61" s="28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R61" s="28"/>
@@ -46741,7 +46741,7 @@
       <c r="O62" s="28"/>
       <c r="P62" s="28"/>
       <c r="Q62" s="28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R62" s="28"/>
@@ -46779,7 +46779,7 @@
       <c r="O63" s="28"/>
       <c r="P63" s="28"/>
       <c r="Q63" s="28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R63" s="28"/>
@@ -46817,7 +46817,7 @@
       <c r="O64" s="28"/>
       <c r="P64" s="28"/>
       <c r="Q64" s="28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R64" s="28"/>
@@ -46857,7 +46857,7 @@
       <c r="O65" s="28"/>
       <c r="P65" s="28"/>
       <c r="Q65" s="28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R65" s="28"/>
@@ -47016,7 +47016,7 @@
         <v>1.7259770259928511E-14</v>
       </c>
       <c r="Q67" s="28">
-        <f t="shared" ref="Q67:Q124" si="2">_xlfn.T.TEST(C68:L68,V68:AE68,2,2)</f>
+        <f t="shared" ref="Q67:Q124" si="3">_xlfn.T.TEST(C68:L68,V68:AE68,2,2)</f>
         <v>2.0473062920316906E-4</v>
       </c>
       <c r="R67" s="28">
@@ -47108,15 +47108,15 @@
       </c>
       <c r="O68" s="28"/>
       <c r="P68" s="28">
-        <f t="shared" ref="P68:P93" si="3">_xlfn.T.TEST(C68:L68,C99:L99,2,2)</f>
+        <f t="shared" ref="P68:P93" si="4">_xlfn.T.TEST(C68:L68,C99:L99,2,2)</f>
         <v>3.6455631316368512E-13</v>
       </c>
       <c r="Q68" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9799217974734675E-6</v>
       </c>
       <c r="R68" s="28">
-        <f t="shared" ref="R68:R93" si="4">_xlfn.T.TEST(V68:AE68,V99:AE99,2,2)</f>
+        <f t="shared" ref="R68:R93" si="5">_xlfn.T.TEST(V68:AE68,V99:AE99,2,2)</f>
         <v>2.1277938574778714E-12</v>
       </c>
       <c r="S68" s="28"/>
@@ -47204,15 +47204,15 @@
       </c>
       <c r="O69" s="28"/>
       <c r="P69" s="28">
+        <f t="shared" si="4"/>
+        <v>6.443899871273913E-10</v>
+      </c>
+      <c r="Q69" s="28">
         <f t="shared" si="3"/>
-        <v>6.443899871273913E-10</v>
-      </c>
-      <c r="Q69" s="28">
-        <f t="shared" si="2"/>
         <v>1.310424257227246E-6</v>
       </c>
       <c r="R69" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9746323275981707E-16</v>
       </c>
       <c r="S69" s="28"/>
@@ -47300,15 +47300,15 @@
       </c>
       <c r="O70" s="28"/>
       <c r="P70" s="28">
+        <f t="shared" si="4"/>
+        <v>1.9508294422445069E-14</v>
+      </c>
+      <c r="Q70" s="28">
         <f t="shared" si="3"/>
-        <v>1.9508294422445069E-14</v>
-      </c>
-      <c r="Q70" s="28">
-        <f t="shared" si="2"/>
         <v>5.0154853143426009E-4</v>
       </c>
       <c r="R70" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.263644522769873E-14</v>
       </c>
       <c r="S70" s="28"/>
@@ -47396,15 +47396,15 @@
       </c>
       <c r="O71" s="28"/>
       <c r="P71" s="28">
+        <f t="shared" si="4"/>
+        <v>3.3194724663835E-13</v>
+      </c>
+      <c r="Q71" s="28">
         <f t="shared" si="3"/>
-        <v>3.3194724663835E-13</v>
-      </c>
-      <c r="Q71" s="28">
-        <f t="shared" si="2"/>
         <v>1.095543826616924E-6</v>
       </c>
       <c r="R71" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.1484200006225275E-12</v>
       </c>
       <c r="S71" s="28"/>
@@ -47492,15 +47492,15 @@
       </c>
       <c r="O72" s="28"/>
       <c r="P72" s="28">
+        <f t="shared" si="4"/>
+        <v>5.4490672094110272E-10</v>
+      </c>
+      <c r="Q72" s="57">
         <f t="shared" si="3"/>
-        <v>5.4490672094110272E-10</v>
-      </c>
-      <c r="Q72" s="57">
-        <f t="shared" si="2"/>
         <v>5.3207979882077625E-3</v>
       </c>
       <c r="R72" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9719363377067375E-17</v>
       </c>
       <c r="S72" s="28"/>
@@ -47588,15 +47588,15 @@
       </c>
       <c r="O73" s="28"/>
       <c r="P73" s="28">
+        <f t="shared" si="4"/>
+        <v>4.2139100724405876E-10</v>
+      </c>
+      <c r="Q73" s="28">
         <f t="shared" si="3"/>
-        <v>4.2139100724405876E-10</v>
-      </c>
-      <c r="Q73" s="28">
-        <f t="shared" si="2"/>
         <v>8.2764342080197062E-2</v>
       </c>
       <c r="R73" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5617023565826927E-9</v>
       </c>
       <c r="S73" s="28"/>
@@ -47684,15 +47684,15 @@
       </c>
       <c r="O74" s="28"/>
       <c r="P74" s="28">
+        <f t="shared" si="4"/>
+        <v>1.2576903049197587E-7</v>
+      </c>
+      <c r="Q74" s="28">
         <f t="shared" si="3"/>
-        <v>1.2576903049197587E-7</v>
-      </c>
-      <c r="Q74" s="28">
-        <f t="shared" si="2"/>
         <v>1.4769955545791812E-3</v>
       </c>
       <c r="R74" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3533461617293569E-7</v>
       </c>
       <c r="S74" s="28"/>
@@ -47780,15 +47780,15 @@
       </c>
       <c r="O75" s="28"/>
       <c r="P75" s="28">
+        <f t="shared" si="4"/>
+        <v>2.3991632359308961E-7</v>
+      </c>
+      <c r="Q75" s="28">
         <f t="shared" si="3"/>
-        <v>2.3991632359308961E-7</v>
-      </c>
-      <c r="Q75" s="28">
-        <f t="shared" si="2"/>
         <v>0.53075440098385451</v>
       </c>
       <c r="R75" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4306025056425021E-9</v>
       </c>
       <c r="S75" s="28"/>
@@ -47876,15 +47876,15 @@
       </c>
       <c r="O76" s="28"/>
       <c r="P76" s="28">
+        <f t="shared" si="4"/>
+        <v>1.0382242840280423E-3</v>
+      </c>
+      <c r="Q76" s="28">
         <f t="shared" si="3"/>
-        <v>1.0382242840280423E-3</v>
-      </c>
-      <c r="Q76" s="28">
-        <f t="shared" si="2"/>
         <v>0.51266355124520313</v>
       </c>
       <c r="R76" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9917885499659588E-5</v>
       </c>
       <c r="S76" s="28"/>
@@ -47972,15 +47972,15 @@
       </c>
       <c r="O77" s="28"/>
       <c r="P77" s="28">
+        <f t="shared" si="4"/>
+        <v>1.0764545469146401E-2</v>
+      </c>
+      <c r="Q77" s="28">
         <f t="shared" si="3"/>
-        <v>1.0764545469146401E-2</v>
-      </c>
-      <c r="Q77" s="28">
-        <f t="shared" si="2"/>
         <v>0.67495478078638393</v>
       </c>
       <c r="R77" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1971551570983111E-4</v>
       </c>
       <c r="S77" s="28"/>
@@ -48068,15 +48068,15 @@
       </c>
       <c r="O78" s="28"/>
       <c r="P78" s="28">
+        <f t="shared" si="4"/>
+        <v>4.252213417921991E-5</v>
+      </c>
+      <c r="Q78" s="28" t="e">
         <f t="shared" si="3"/>
-        <v>4.252213417921991E-5</v>
-      </c>
-      <c r="Q78" s="28" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R78" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4660756114064928E-4</v>
       </c>
       <c r="S78" s="28"/>
@@ -48164,15 +48164,15 @@
       </c>
       <c r="O79" s="28"/>
       <c r="P79" s="28" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q79" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q79" s="28" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R79" s="28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S79" s="28"/>
@@ -48260,15 +48260,15 @@
       </c>
       <c r="O80" s="28"/>
       <c r="P80" s="28" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q80" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q80" s="28" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R80" s="28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S80" s="28"/>
@@ -48356,15 +48356,15 @@
       </c>
       <c r="O81" s="28"/>
       <c r="P81" s="28" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q81" s="28">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q81" s="28">
-        <f t="shared" si="2"/>
         <v>8.8568252914694511E-6</v>
       </c>
       <c r="R81" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33056493127818387</v>
       </c>
       <c r="S81" s="28"/>
@@ -48452,15 +48452,15 @@
       </c>
       <c r="O82" s="28"/>
       <c r="P82" s="28">
+        <f t="shared" si="4"/>
+        <v>1.6471984485271728E-8</v>
+      </c>
+      <c r="Q82" s="28">
         <f t="shared" si="3"/>
-        <v>1.6471984485271728E-8</v>
-      </c>
-      <c r="Q82" s="28">
-        <f t="shared" si="2"/>
         <v>3.6866148443420645E-4</v>
       </c>
       <c r="R82" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.852649320580602E-9</v>
       </c>
       <c r="S82" s="28"/>
@@ -48548,15 +48548,15 @@
       </c>
       <c r="O83" s="28"/>
       <c r="P83" s="28">
+        <f t="shared" si="4"/>
+        <v>2.4818757678622244E-7</v>
+      </c>
+      <c r="Q83" s="28">
         <f t="shared" si="3"/>
-        <v>2.4818757678622244E-7</v>
-      </c>
-      <c r="Q83" s="28">
-        <f t="shared" si="2"/>
         <v>5.540107975424289E-5</v>
       </c>
       <c r="R83" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.7407481023144618E-7</v>
       </c>
       <c r="S83" s="28"/>
@@ -48644,15 +48644,15 @@
       </c>
       <c r="O84" s="28"/>
       <c r="P84" s="28">
+        <f t="shared" si="4"/>
+        <v>3.4097588052763733E-4</v>
+      </c>
+      <c r="Q84" s="28">
         <f t="shared" si="3"/>
-        <v>3.4097588052763733E-4</v>
-      </c>
-      <c r="Q84" s="28">
-        <f t="shared" si="2"/>
         <v>0.37059287040813282</v>
       </c>
       <c r="R84" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.980715988207762E-9</v>
       </c>
       <c r="S84" s="28"/>
@@ -48740,15 +48740,15 @@
       </c>
       <c r="O85" s="28"/>
       <c r="P85" s="28">
+        <f t="shared" si="4"/>
+        <v>7.6157352521395887E-8</v>
+      </c>
+      <c r="Q85" s="28">
         <f t="shared" si="3"/>
-        <v>7.6157352521395887E-8</v>
-      </c>
-      <c r="Q85" s="28">
-        <f t="shared" si="2"/>
         <v>7.1851629348124696E-2</v>
       </c>
       <c r="R85" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1294806324950154E-9</v>
       </c>
       <c r="S85" s="28"/>
@@ -48836,15 +48836,15 @@
       </c>
       <c r="O86" s="28"/>
       <c r="P86" s="28">
+        <f t="shared" si="4"/>
+        <v>7.6924497285860276E-8</v>
+      </c>
+      <c r="Q86" s="28">
         <f t="shared" si="3"/>
-        <v>7.6924497285860276E-8</v>
-      </c>
-      <c r="Q86" s="28">
-        <f t="shared" si="2"/>
         <v>0.88900348044623501</v>
       </c>
       <c r="R86" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7339692206673471E-8</v>
       </c>
       <c r="S86" s="28"/>
@@ -48932,15 +48932,15 @@
       </c>
       <c r="O87" s="28"/>
       <c r="P87" s="28">
+        <f t="shared" si="4"/>
+        <v>1.8859026461080859E-4</v>
+      </c>
+      <c r="Q87" s="28">
         <f t="shared" si="3"/>
-        <v>1.8859026461080859E-4</v>
-      </c>
-      <c r="Q87" s="28">
-        <f t="shared" si="2"/>
         <v>0.84398070042432749</v>
       </c>
       <c r="R87" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6483687819008891E-6</v>
       </c>
       <c r="S87" s="28"/>
@@ -49028,15 +49028,15 @@
       </c>
       <c r="O88" s="28"/>
       <c r="P88" s="28">
+        <f t="shared" si="4"/>
+        <v>6.6296942369536274E-2</v>
+      </c>
+      <c r="Q88" s="28">
         <f t="shared" si="3"/>
-        <v>6.6296942369536274E-2</v>
-      </c>
-      <c r="Q88" s="28">
-        <f t="shared" si="2"/>
         <v>0.98592381432755327</v>
       </c>
       <c r="R88" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25071364620232234</v>
       </c>
       <c r="S88" s="28"/>
@@ -49124,15 +49124,15 @@
       </c>
       <c r="O89" s="28"/>
       <c r="P89" s="28">
+        <f t="shared" si="4"/>
+        <v>0.24644672379185018</v>
+      </c>
+      <c r="Q89" s="28">
         <f t="shared" si="3"/>
-        <v>0.24644672379185018</v>
-      </c>
-      <c r="Q89" s="28">
-        <f t="shared" si="2"/>
         <v>0.98506614500670941</v>
       </c>
       <c r="R89" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66680393953076522</v>
       </c>
       <c r="S89" s="28"/>
@@ -49220,15 +49220,15 @@
       </c>
       <c r="O90" s="28"/>
       <c r="P90" s="28">
+        <f t="shared" si="4"/>
+        <v>0.28959479734901505</v>
+      </c>
+      <c r="Q90" s="28">
         <f t="shared" si="3"/>
-        <v>0.28959479734901505</v>
-      </c>
-      <c r="Q90" s="28">
-        <f t="shared" si="2"/>
         <v>3.7106568570769029E-2</v>
       </c>
       <c r="R90" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.68560894490484692</v>
       </c>
       <c r="S90" s="28"/>
@@ -49316,15 +49316,15 @@
       </c>
       <c r="O91" s="28"/>
       <c r="P91" s="28">
+        <f t="shared" si="4"/>
+        <v>0.64669821977922837</v>
+      </c>
+      <c r="Q91" s="28">
         <f t="shared" si="3"/>
-        <v>0.64669821977922837</v>
-      </c>
-      <c r="Q91" s="28">
-        <f t="shared" si="2"/>
         <v>0.66005565318958825</v>
       </c>
       <c r="R91" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12978551722824283</v>
       </c>
       <c r="S91" s="28"/>
@@ -49412,15 +49412,15 @@
       </c>
       <c r="O92" s="28"/>
       <c r="P92" s="28">
+        <f t="shared" si="4"/>
+        <v>0.28776306790012451</v>
+      </c>
+      <c r="Q92" s="28" t="e">
         <f t="shared" si="3"/>
-        <v>0.28776306790012451</v>
-      </c>
-      <c r="Q92" s="28" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R92" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82413553046482346</v>
       </c>
       <c r="S92" s="28"/>
@@ -49508,15 +49508,15 @@
       </c>
       <c r="O93" s="28"/>
       <c r="P93" s="28" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q93" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q93" s="28" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R93" s="28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S93" s="28"/>
@@ -49579,7 +49579,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
       <c r="Q94" s="28" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R94" s="28"/>
@@ -49617,7 +49617,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
       <c r="Q95" s="28" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R95" s="28"/>
@@ -49657,7 +49657,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
       <c r="Q96" s="28" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R96" s="28"/>
@@ -49723,7 +49723,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
       <c r="Q97" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11361476199535264</v>
       </c>
       <c r="R97" s="28"/>
@@ -49813,7 +49813,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
       <c r="Q98" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0537926494108755E-2</v>
       </c>
       <c r="R98" s="28"/>
@@ -49903,7 +49903,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
       <c r="Q99" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3992232398110398</v>
       </c>
       <c r="R99" s="28"/>
@@ -49993,7 +49993,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
       <c r="Q100" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9939515780330085E-2</v>
       </c>
       <c r="R100" s="28"/>
@@ -50083,7 +50083,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
       <c r="Q101" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4533550399359151E-2</v>
       </c>
       <c r="R101" s="28"/>
@@ -50173,7 +50173,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
       <c r="Q102" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26981935023606879</v>
       </c>
       <c r="R102" s="28"/>
@@ -50263,7 +50263,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
       <c r="Q103" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3069701627321122</v>
       </c>
       <c r="R103" s="28"/>
@@ -50353,7 +50353,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
       <c r="Q104" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.348750800119217</v>
       </c>
       <c r="R104" s="28"/>
@@ -50443,7 +50443,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
       <c r="Q105" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71394205597466198</v>
       </c>
       <c r="R105" s="28"/>
@@ -50533,7 +50533,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
       <c r="Q106" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5108257399252868E-2</v>
       </c>
       <c r="R106" s="28"/>
@@ -50621,7 +50621,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
       <c r="Q107" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7632278158498116E-2</v>
       </c>
       <c r="R107" s="28"/>
@@ -50711,7 +50711,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
       <c r="Q108" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63041936193602766</v>
       </c>
       <c r="R108" s="28"/>
@@ -50801,7 +50801,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
       <c r="Q109" s="28" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R109" s="28"/>
@@ -50889,7 +50889,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
       <c r="Q110" s="28" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R110" s="28"/>
@@ -50979,7 +50979,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
       <c r="Q111" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33056493127818387</v>
       </c>
       <c r="R111" s="28"/>
@@ -51069,7 +51069,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
       <c r="Q112" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12896890198669358</v>
       </c>
       <c r="R112" s="28"/>
@@ -51159,7 +51159,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
       <c r="Q113" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47641891997244545</v>
       </c>
       <c r="R113" s="28"/>
@@ -51249,7 +51249,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
       <c r="Q114" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13188019580697985</v>
       </c>
       <c r="R114" s="28"/>
@@ -51339,7 +51339,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
       <c r="Q115" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24514697100983102</v>
       </c>
       <c r="R115" s="28"/>
@@ -51429,7 +51429,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
       <c r="Q116" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66612267797022973</v>
       </c>
       <c r="R116" s="28"/>
@@ -51519,7 +51519,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
       <c r="Q117" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4385578460807255E-2</v>
       </c>
       <c r="R117" s="28"/>
@@ -51609,7 +51609,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
       <c r="Q118" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9554420421493024</v>
       </c>
       <c r="R118" s="28"/>
@@ -51699,7 +51699,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
       <c r="Q119" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44521343158805859</v>
       </c>
       <c r="R119" s="28"/>
@@ -51789,7 +51789,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
       <c r="Q120" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49992486972435324</v>
       </c>
       <c r="R120" s="28"/>
@@ -51879,7 +51879,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
       <c r="Q121" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58696637710411315</v>
       </c>
       <c r="R121" s="28"/>
@@ -51969,7 +51969,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
       <c r="Q122" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18245368150465677</v>
       </c>
       <c r="R122" s="28"/>
@@ -52059,7 +52059,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
       <c r="Q123" s="28" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R123" s="28"/>
@@ -52149,7 +52149,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
       <c r="Q124" s="28" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R124" s="28"/>
@@ -52204,8 +52204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8308A97-6EAE-427E-A5F1-7828527B53DC}">
   <dimension ref="A1:AF125"/>
   <sheetViews>
-    <sheetView topLeftCell="L79" workbookViewId="0">
-      <selection activeCell="A66" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="R64" workbookViewId="0">
+      <selection activeCell="R66" sqref="R66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57202,7 +57202,7 @@
       <c r="O66" s="50"/>
       <c r="P66" s="50"/>
       <c r="Q66" s="50"/>
-      <c r="R66" s="28" t="s">
+      <c r="R66" s="56" t="s">
         <v>593</v>
       </c>
     </row>
